--- a/console/Networking/networkExcel1029/elasticNetworkMixinsXlsx/detail.xlsx
+++ b/console/Networking/networkExcel1029/elasticNetworkMixinsXlsx/detail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhaoxiangyi\Desktop\11.1\2018.11.1 京东云console-精益通-韩凯\质检-1810-31_HO_console-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\京东云-返工\20. 弹性网卡控制台国际化翻译校对\3. 客户确认版-更新至github\弹性网卡确认-GTCOM-haopeng1108-需更新至github\elasticNetworkMixinsXlsx_haopeng1106-R\elasticNetworkMixinsXlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" iterate="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -497,18 +497,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>网卡属性</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>detail_i18nKey_21</t>
     </r>
   </si>
@@ -989,42 +977,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">Action </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>associate with virtual machines</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>disassociate virtual machines</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Delete</t>
     </r>
   </si>
@@ -1073,18 +1025,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Copy Successfully</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Copy</t>
     </r>
   </si>
@@ -1157,18 +1097,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Confirm&amp;nbsp;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Region</t>
     </r>
   </si>
@@ -1181,18 +1109,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>MAC address</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Virtual Private Cloud</t>
     </r>
   </si>
@@ -1217,18 +1133,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Network Interface Attribute</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Creation Time</t>
     </r>
   </si>
@@ -1241,18 +1145,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Associate Resource Information</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Resource Type</t>
     </r>
   </si>
@@ -1301,18 +1193,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Security Group</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>The name cannot be blank</t>
     </r>
   </si>
@@ -1397,18 +1277,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>'Begin to obtain elastic network interface details'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Secondary IP</t>
     </r>
   </si>
@@ -1425,47 +1293,67 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Begin to modify elastic network interface name'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Elastic network interface binding task successfully submitted! Please refresh the page later'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'Elastic network interface unbinding task successfully submitted! Please refresh the page later'</t>
-    </r>
+    <t>Security Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attach to VM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Detach from VM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Copied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Confirm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC Address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENI Role</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Attached Resource Information</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Elastic Network Interface attaching task has been successfully submitted! Refresh this page later.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Elastic Network Interface detaching task has been successfully submitted! Refresh this page later.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin to modify Elastic Network Interface name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网卡属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading Elastic Network Interface details'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1475,6 +1363,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1501,9 +1397,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1847,8 +1752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.77734375" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1863,8 +1768,8 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>80</v>
+      <c r="C1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1874,8 +1779,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>81</v>
+      <c r="C2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1885,8 +1790,8 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>82</v>
+      <c r="C3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1897,7 +1802,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1908,7 +1813,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1919,7 +1824,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1930,7 +1835,7 @@
         <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1940,8 +1845,8 @@
       <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>87</v>
+      <c r="C8" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1952,7 +1857,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1963,7 +1868,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1974,7 +1879,7 @@
         <v>21</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1985,7 +1890,7 @@
         <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1996,7 +1901,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2007,7 +1912,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -2017,8 +1922,8 @@
       <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>94</v>
+      <c r="C15" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -2029,7 +1934,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -2039,8 +1944,8 @@
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>96</v>
+      <c r="C17" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -2051,7 +1956,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -2062,92 +1967,92 @@
         <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>99</v>
+      <c r="B20" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>101</v>
+      <c r="C22" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>106</v>
@@ -2155,152 +2060,153 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>67</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="B35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>114</v>
+      <c r="C35" s="4" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C37" s="1" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>118</v>
+      <c r="C39" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>119</v>
+      <c r="C40" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B40" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B19 A21:B40 A20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>